--- a/data/raw/ANL1-2020-2021 attendance.xlsx
+++ b/data/raw/ANL1-2020-2021 attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejdobrkovic/extra/courses/2223datascience/(X3) black/(02) ANL sources/anonymized/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiaQiang\Desktop\Project DS Analysis\DsAnalysisProject\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7E1237-D904-8342-8FF4-CA037CB20E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35309552-B354-4F87-A942-0AA56CF2FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20-21 students" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -478,24 +481,26 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D295" sqref="D295"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="15" width="7.83203125" customWidth="1"/>
-    <col min="16" max="26" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="15" width="7.875" customWidth="1"/>
+    <col min="16" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +559,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2449091</v>
       </c>
@@ -608,7 +613,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2448095</v>
       </c>
@@ -662,7 +667,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2466895</v>
       </c>
@@ -716,7 +721,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2472842</v>
       </c>
@@ -770,7 +775,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2471245</v>
       </c>
@@ -824,7 +829,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2460816</v>
       </c>
@@ -878,7 +883,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2374797</v>
       </c>
@@ -932,7 +937,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2374905</v>
       </c>
@@ -986,7 +991,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2381943</v>
       </c>
@@ -1040,7 +1045,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2397371</v>
       </c>
@@ -1094,7 +1099,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2446469</v>
       </c>
@@ -1148,7 +1153,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2472434</v>
       </c>
@@ -1202,7 +1207,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2471982</v>
       </c>
@@ -1256,7 +1261,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2470138</v>
       </c>
@@ -1310,7 +1315,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2460095</v>
       </c>
@@ -1364,7 +1369,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2462744</v>
       </c>
@@ -1418,7 +1423,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2462438</v>
       </c>
@@ -1472,7 +1477,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2371373</v>
       </c>
@@ -1526,7 +1531,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2363900</v>
       </c>
@@ -1580,7 +1585,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2391565</v>
       </c>
@@ -1634,7 +1639,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2446578</v>
       </c>
@@ -1688,7 +1693,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2473489</v>
       </c>
@@ -1742,7 +1747,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2471383</v>
       </c>
@@ -1796,7 +1801,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2462258</v>
       </c>
@@ -1850,7 +1855,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2486018</v>
       </c>
@@ -1904,7 +1909,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2490320</v>
       </c>
@@ -1958,7 +1963,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2479981</v>
       </c>
@@ -2012,7 +2017,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2363416</v>
       </c>
@@ -2066,7 +2071,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2383071</v>
       </c>
@@ -2120,7 +2125,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2379987</v>
       </c>
@@ -2174,7 +2179,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2465220</v>
       </c>
@@ -2228,7 +2233,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2447821</v>
       </c>
@@ -2282,7 +2287,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2446652</v>
       </c>
@@ -2336,7 +2341,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2446592</v>
       </c>
@@ -2390,7 +2395,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2470025</v>
       </c>
@@ -2444,7 +2449,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2460514</v>
       </c>
@@ -2498,7 +2503,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2463394</v>
       </c>
@@ -2552,7 +2557,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2475836</v>
       </c>
@@ -2606,7 +2611,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2369630</v>
       </c>
@@ -2660,7 +2665,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2375249</v>
       </c>
@@ -2714,7 +2719,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2460178</v>
       </c>
@@ -2768,7 +2773,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2448525</v>
       </c>
@@ -2822,7 +2827,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2447454</v>
       </c>
@@ -2876,7 +2881,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2446883</v>
       </c>
@@ -2930,7 +2935,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2446881</v>
       </c>
@@ -2984,7 +2989,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2469186</v>
       </c>
@@ -3038,7 +3043,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2469297</v>
       </c>
@@ -3092,7 +3097,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2466114</v>
       </c>
@@ -3146,7 +3151,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2460275</v>
       </c>
@@ -3200,7 +3205,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2464574</v>
       </c>
@@ -3254,7 +3259,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2488077</v>
       </c>
@@ -3308,7 +3313,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>2467425</v>
       </c>
@@ -3362,7 +3367,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>2474960</v>
       </c>
@@ -3416,7 +3421,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2441545</v>
       </c>
@@ -3470,7 +3475,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2448512</v>
       </c>
@@ -3524,7 +3529,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2445663</v>
       </c>
@@ -3578,7 +3583,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2468204</v>
       </c>
@@ -3632,7 +3637,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2473980</v>
       </c>
@@ -3686,7 +3691,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2459206</v>
       </c>
@@ -3740,7 +3745,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2464801</v>
       </c>
@@ -3794,7 +3799,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2464875</v>
       </c>
@@ -3848,7 +3853,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2462249</v>
       </c>
@@ -3902,7 +3907,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2375875</v>
       </c>
@@ -3956,7 +3961,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2441251</v>
       </c>
@@ -4010,7 +4015,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2468825</v>
       </c>
@@ -4064,7 +4069,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2472947</v>
       </c>
@@ -4118,7 +4123,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2460524</v>
       </c>
@@ -4172,7 +4177,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2460367</v>
       </c>
@@ -4226,7 +4231,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2459873</v>
       </c>
@@ -4280,7 +4285,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2458016</v>
       </c>
@@ -4334,7 +4339,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2457661</v>
       </c>
@@ -4388,7 +4393,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2486969</v>
       </c>
@@ -4442,7 +4447,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2477849</v>
       </c>
@@ -4496,7 +4501,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2447323</v>
       </c>
@@ -4550,7 +4555,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2466569</v>
       </c>
@@ -4604,7 +4609,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2472638</v>
       </c>
@@ -4658,7 +4663,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2471046</v>
       </c>
@@ -4712,7 +4717,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2470786</v>
       </c>
@@ -4766,7 +4771,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2470406</v>
       </c>
@@ -4820,7 +4825,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2461288</v>
       </c>
@@ -4874,7 +4879,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2489791</v>
       </c>
@@ -4928,7 +4933,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2367347</v>
       </c>
@@ -4982,7 +4987,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2397007</v>
       </c>
@@ -5036,7 +5041,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2441412</v>
       </c>
@@ -5090,7 +5095,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2448788</v>
       </c>
@@ -5144,7 +5149,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2469140</v>
       </c>
@@ -5198,7 +5203,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2473892</v>
       </c>
@@ -5252,7 +5257,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2471509</v>
       </c>
@@ -5306,7 +5311,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2471591</v>
       </c>
@@ -5360,7 +5365,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2471085</v>
       </c>
@@ -5414,7 +5419,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2463439</v>
       </c>
@@ -5468,7 +5473,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2486689</v>
       </c>
@@ -5522,7 +5527,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2478047</v>
       </c>
@@ -5576,7 +5581,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2475007</v>
       </c>
@@ -5630,7 +5635,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2449234</v>
       </c>
@@ -5684,7 +5689,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2446942</v>
       </c>
@@ -5738,7 +5743,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2446193</v>
       </c>
@@ -5792,7 +5797,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2467819</v>
       </c>
@@ -5846,7 +5851,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2473675</v>
       </c>
@@ -5900,7 +5905,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2471666</v>
       </c>
@@ -5954,7 +5959,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2460825</v>
       </c>
@@ -6008,7 +6013,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2459974</v>
       </c>
@@ -6062,7 +6067,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2457637</v>
       </c>
@@ -6116,7 +6121,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2478675</v>
       </c>
@@ -6170,7 +6175,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2468534</v>
       </c>
@@ -6224,7 +6229,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2468186</v>
       </c>
@@ -6278,7 +6283,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2467558</v>
       </c>
@@ -6332,7 +6337,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2460979</v>
       </c>
@@ -6386,7 +6391,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2459967</v>
       </c>
@@ -6440,7 +6445,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2459587</v>
       </c>
@@ -6494,7 +6499,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2457955</v>
       </c>
@@ -6548,7 +6553,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2490093</v>
       </c>
@@ -6602,7 +6607,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2476817</v>
       </c>
@@ -6656,7 +6661,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2384897</v>
       </c>
@@ -6710,7 +6715,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2500187</v>
       </c>
@@ -6764,7 +6769,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2445958</v>
       </c>
@@ -6818,7 +6823,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2466608</v>
       </c>
@@ -6872,7 +6877,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2472061</v>
       </c>
@@ -6926,7 +6931,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2471844</v>
       </c>
@@ -6980,7 +6985,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2460594</v>
       </c>
@@ -7034,7 +7039,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2460222</v>
       </c>
@@ -7088,7 +7093,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2459364</v>
       </c>
@@ -7142,7 +7147,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2477677</v>
       </c>
@@ -7196,7 +7201,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2380228</v>
       </c>
@@ -7250,7 +7255,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2419913</v>
       </c>
@@ -7304,7 +7309,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2467427</v>
       </c>
@@ -7358,7 +7363,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2471349</v>
       </c>
@@ -7412,7 +7417,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2460194</v>
       </c>
@@ -7466,7 +7471,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2459402</v>
       </c>
@@ -7520,7 +7525,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2462671</v>
       </c>
@@ -7574,7 +7579,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2461833</v>
       </c>
@@ -7628,7 +7633,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2476786</v>
       </c>
@@ -7682,7 +7687,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2480713</v>
       </c>
@@ -7736,7 +7741,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>2402647</v>
       </c>
@@ -7792,7 +7797,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2398054</v>
       </c>
@@ -7846,7 +7851,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2441641</v>
       </c>
@@ -7900,7 +7905,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2446972</v>
       </c>
@@ -7954,7 +7959,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2445750</v>
       </c>
@@ -8008,7 +8013,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2466089</v>
       </c>
@@ -8062,7 +8067,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2470137</v>
       </c>
@@ -8116,7 +8121,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2465549</v>
       </c>
@@ -8170,7 +8175,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2488264</v>
       </c>
@@ -8224,7 +8229,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2475484</v>
       </c>
@@ -8278,7 +8283,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2369362</v>
       </c>
@@ -8332,7 +8337,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2403829</v>
       </c>
@@ -8386,7 +8391,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2449284</v>
       </c>
@@ -8440,7 +8445,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2469868</v>
       </c>
@@ -8494,7 +8499,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2467283</v>
       </c>
@@ -8548,7 +8553,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2472609</v>
       </c>
@@ -8602,7 +8607,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2472033</v>
       </c>
@@ -8656,7 +8661,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2470423</v>
       </c>
@@ -8710,7 +8715,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2460236</v>
       </c>
@@ -8764,7 +8769,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2458140</v>
       </c>
@@ -8818,7 +8823,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2482668</v>
       </c>
@@ -8872,7 +8877,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2389243</v>
       </c>
@@ -8926,7 +8931,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2486219</v>
       </c>
@@ -8980,7 +8985,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2448530</v>
       </c>
@@ -9034,7 +9039,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2448317</v>
       </c>
@@ -9088,7 +9093,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2446098</v>
       </c>
@@ -9142,7 +9147,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2466786</v>
       </c>
@@ -9196,7 +9201,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2473590</v>
       </c>
@@ -9250,7 +9255,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2470058</v>
       </c>
@@ -9304,7 +9309,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2486181</v>
       </c>
@@ -9358,7 +9363,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2483362</v>
       </c>
@@ -9412,7 +9417,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2486349</v>
       </c>
@@ -9466,7 +9471,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2474484</v>
       </c>
@@ -9520,7 +9525,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2448578</v>
       </c>
@@ -9574,7 +9579,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2446033</v>
       </c>
@@ -9628,7 +9633,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2468143</v>
       </c>
@@ -9682,7 +9687,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2466897</v>
       </c>
@@ -9736,7 +9741,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2473919</v>
       </c>
@@ -9790,7 +9795,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2473077</v>
       </c>
@@ -9844,7 +9849,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2461215</v>
       </c>
@@ -9898,7 +9903,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2484150</v>
       </c>
@@ -9952,7 +9957,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2488572</v>
       </c>
@@ -10006,7 +10011,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2478632</v>
       </c>
@@ -10060,7 +10065,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>2447503</v>
       </c>
@@ -10114,7 +10119,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2446004</v>
       </c>
@@ -10168,7 +10173,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2445979</v>
       </c>
@@ -10222,7 +10227,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2467462</v>
       </c>
@@ -10276,7 +10281,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2472746</v>
       </c>
@@ -10330,7 +10335,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2470419</v>
       </c>
@@ -10384,7 +10389,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2463987</v>
       </c>
@@ -10438,7 +10443,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9">
         <v>2463162</v>
       </c>
@@ -10492,7 +10497,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2477352</v>
       </c>
@@ -10546,7 +10551,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2563749</v>
       </c>
@@ -10600,7 +10605,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2447854</v>
       </c>
@@ -10654,7 +10659,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2469670</v>
       </c>
@@ -10708,7 +10713,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2467768</v>
       </c>
@@ -10762,7 +10767,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2473388</v>
       </c>
@@ -10816,7 +10821,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2471197</v>
       </c>
@@ -10870,7 +10875,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2470394</v>
       </c>
@@ -10924,7 +10929,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2461222</v>
       </c>
@@ -10978,7 +10983,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2460930</v>
       </c>
@@ -11032,7 +11037,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2464769</v>
       </c>
@@ -11086,7 +11091,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2484868</v>
       </c>
@@ -11140,7 +11145,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>2489657</v>
       </c>
@@ -11194,7 +11199,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>2482072</v>
       </c>
@@ -11248,7 +11253,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>2441581</v>
       </c>
@@ -11302,7 +11307,7 @@
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>2445320</v>
       </c>
@@ -11356,7 +11361,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2445567</v>
       </c>
@@ -11410,7 +11415,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2472834</v>
       </c>
@@ -11464,7 +11469,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2470463</v>
       </c>
@@ -11518,7 +11523,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2470267</v>
       </c>
@@ -11572,7 +11577,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>2462610</v>
       </c>
@@ -11626,7 +11631,7 @@
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2462052</v>
       </c>
@@ -11680,7 +11685,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>2385970</v>
       </c>
@@ -11734,7 +11739,7 @@
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2601972</v>
       </c>
@@ -11788,7 +11793,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2449280</v>
       </c>
@@ -11842,7 +11847,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2446057</v>
       </c>
@@ -11896,7 +11901,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2466479</v>
       </c>
@@ -11950,7 +11955,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2471125</v>
       </c>
@@ -12004,7 +12009,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>2470432</v>
       </c>
@@ -12058,7 +12063,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2470035</v>
       </c>
@@ -12112,7 +12117,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2461409</v>
       </c>
@@ -12166,7 +12171,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>2474960</v>
       </c>
@@ -12220,7 +12225,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>2375063</v>
       </c>
@@ -12274,7 +12279,7 @@
       <c r="Y218" s="6"/>
       <c r="Z218" s="6"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2375958</v>
       </c>
@@ -12328,7 +12333,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2446346</v>
       </c>
@@ -12382,7 +12387,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2468464</v>
       </c>
@@ -12436,7 +12441,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2468230</v>
       </c>
@@ -12490,7 +12495,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2472539</v>
       </c>
@@ -12544,7 +12549,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2470614</v>
       </c>
@@ -12598,7 +12603,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2465372</v>
       </c>
@@ -12652,7 +12657,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2462740</v>
       </c>
@@ -12706,7 +12711,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2483552</v>
       </c>
@@ -12760,7 +12765,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2488564</v>
       </c>
@@ -12814,7 +12819,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2604047</v>
       </c>
@@ -12868,7 +12873,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2448032</v>
       </c>
@@ -12922,7 +12927,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2448118</v>
       </c>
@@ -12976,7 +12981,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2447119</v>
       </c>
@@ -13030,7 +13035,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2468369</v>
       </c>
@@ -13084,7 +13089,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2468597</v>
       </c>
@@ -13138,7 +13143,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>2473029</v>
       </c>
@@ -13192,7 +13197,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>2472752</v>
       </c>
@@ -13246,7 +13251,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>2472296</v>
       </c>
@@ -13300,7 +13305,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>2461323</v>
       </c>
@@ -13354,7 +13359,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>2476845</v>
       </c>
@@ -13408,7 +13413,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2479407</v>
       </c>
@@ -13462,7 +13467,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2447571</v>
       </c>
@@ -13516,7 +13521,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>2472950</v>
       </c>
@@ -13570,7 +13575,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>2470822</v>
       </c>
@@ -13624,7 +13629,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>2461100</v>
       </c>
@@ -13678,7 +13683,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2461060</v>
       </c>
@@ -13732,7 +13737,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2486354</v>
       </c>
@@ -13786,7 +13791,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2476680</v>
       </c>
@@ -13840,7 +13845,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2474444</v>
       </c>
@@ -13894,7 +13899,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2383406</v>
       </c>
@@ -13948,7 +13953,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>2404288</v>
       </c>
@@ -14002,7 +14007,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>2448949</v>
       </c>
@@ -14056,7 +14061,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>2473484</v>
       </c>
@@ -14110,7 +14115,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>2461567</v>
       </c>
@@ -14164,7 +14169,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>2463984</v>
       </c>
@@ -14218,7 +14223,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>2477249</v>
       </c>
@@ -14272,7 +14277,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>2475742</v>
       </c>
@@ -14326,7 +14331,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>2474652</v>
       </c>
@@ -14380,7 +14385,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>2401803</v>
       </c>
@@ -14434,7 +14439,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>2568742</v>
       </c>
@@ -14488,7 +14493,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>2446965</v>
       </c>
@@ -14542,7 +14547,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>2468759</v>
       </c>
@@ -14596,7 +14601,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>2468164</v>
       </c>
@@ -14650,7 +14655,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>2467025</v>
       </c>
@@ -14704,7 +14709,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>2470724</v>
       </c>
@@ -14758,7 +14763,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>2460886</v>
       </c>
@@ -14812,7 +14817,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>2459147</v>
       </c>
@@ -14866,7 +14871,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>2459209</v>
       </c>
@@ -14920,7 +14925,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>2488322</v>
       </c>
@@ -14974,7 +14979,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>2477408</v>
       </c>
@@ -15028,7 +15033,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>2397400</v>
       </c>
@@ -15082,7 +15087,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>2446915</v>
       </c>
@@ -15136,7 +15141,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>2466061</v>
       </c>
@@ -15190,7 +15195,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>2466206</v>
       </c>
@@ -15244,7 +15249,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2471344</v>
       </c>
@@ -15298,7 +15303,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2461221</v>
       </c>
@@ -15352,7 +15357,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2459737</v>
       </c>
@@ -15406,7 +15411,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2459332</v>
       </c>
@@ -15460,7 +15465,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2489728</v>
       </c>
@@ -15514,7 +15519,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>2489413</v>
       </c>
@@ -15568,7 +15573,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>2476102</v>
       </c>
@@ -15622,7 +15627,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>2403568</v>
       </c>
@@ -15676,7 +15681,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>2461711</v>
       </c>
@@ -15730,7 +15735,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <v>2441576</v>
       </c>
@@ -15784,7 +15789,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>2447671</v>
       </c>
@@ -15838,7 +15843,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2469091</v>
       </c>
@@ -15892,7 +15897,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>2473190</v>
       </c>
@@ -15946,7 +15951,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>2472458</v>
       </c>
@@ -16000,7 +16005,7 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2471517</v>
       </c>
@@ -16054,7 +16059,7 @@
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
     </row>
-    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>2461348</v>
       </c>
@@ -16108,7 +16113,7 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>2477415</v>
       </c>
@@ -16162,7 +16167,7 @@
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
     </row>
-    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>2477026</v>
       </c>
@@ -16216,7 +16221,7 @@
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
     </row>
-    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>2387427</v>
       </c>
@@ -16270,7 +16275,7 @@
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
     </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>2394721</v>
       </c>
@@ -16324,7 +16329,7 @@
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
     </row>
-    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>2495925</v>
       </c>
@@ -16380,7 +16385,7 @@
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
     </row>
-    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>2469368</v>
       </c>
@@ -16434,7 +16439,7 @@
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
     </row>
-    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>2467815</v>
       </c>
@@ -16488,7 +16493,7 @@
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
     </row>
-    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>2466477</v>
       </c>
@@ -16542,7 +16547,7 @@
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
     </row>
-    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>2471988</v>
       </c>
@@ -16596,7 +16601,7 @@
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
     </row>
-    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>2470597</v>
       </c>
@@ -16650,7 +16655,7 @@
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
     </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>2460467</v>
       </c>
@@ -16704,7 +16709,7 @@
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
     </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>2465376</v>
       </c>
@@ -16758,7 +16763,7 @@
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
     </row>
-    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>2461897</v>
       </c>
@@ -16812,7 +16817,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>2488610</v>
       </c>
@@ -16866,7 +16871,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>2569746</v>
       </c>
@@ -16920,7 +16925,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <v>2483652</v>
       </c>
@@ -16974,7 +16979,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>2449007</v>
       </c>
@@ -17028,7 +17033,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>2447003</v>
       </c>
@@ -17082,7 +17087,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2445951</v>
       </c>
@@ -17136,7 +17141,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>2469215</v>
       </c>
@@ -17190,7 +17195,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>2466637</v>
       </c>
@@ -17244,7 +17249,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>2458180</v>
       </c>
@@ -17298,7 +17303,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>2487380</v>
       </c>
@@ -17352,7 +17357,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>2407419</v>
       </c>
@@ -17406,7 +17411,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2414832</v>
       </c>
@@ -17460,7 +17465,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2575386</v>
       </c>
@@ -17514,7 +17519,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10">
         <v>2442433</v>
       </c>
@@ -17568,7 +17573,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -17596,7 +17601,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -17624,7 +17629,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -17652,7 +17657,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -17680,7 +17685,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -17708,7 +17713,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -17736,7 +17741,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -17764,7 +17769,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -17792,7 +17797,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -17820,7 +17825,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -17848,7 +17853,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -17876,7 +17881,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -17904,7 +17909,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -17932,7 +17937,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -17960,7 +17965,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -17988,7 +17993,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -18016,7 +18021,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -18044,7 +18049,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -18072,7 +18077,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -18100,7 +18105,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -18128,7 +18133,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -18156,7 +18161,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -18184,7 +18189,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -18212,7 +18217,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -18240,7 +18245,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -18268,7 +18273,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -18296,7 +18301,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -18324,7 +18329,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -18352,7 +18357,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -18380,7 +18385,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -18408,7 +18413,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -18436,7 +18441,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -18464,7 +18469,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -18492,7 +18497,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -18520,7 +18525,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -18548,7 +18553,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -18576,7 +18581,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -18604,7 +18609,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -18632,7 +18637,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -18660,7 +18665,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -18688,7 +18693,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -18716,7 +18721,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -18744,7 +18749,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -18772,7 +18777,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -18800,7 +18805,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -18828,7 +18833,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -18856,7 +18861,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -18884,7 +18889,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -18912,7 +18917,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -18940,7 +18945,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -18968,7 +18973,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -18996,7 +19001,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -19024,7 +19029,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -19052,7 +19057,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -19080,7 +19085,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -19108,7 +19113,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -19136,7 +19141,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -19164,7 +19169,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -19192,7 +19197,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -19220,7 +19225,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -19248,7 +19253,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -19276,7 +19281,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -19304,7 +19309,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -19332,7 +19337,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -19360,7 +19365,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -19388,7 +19393,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -19416,7 +19421,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -19444,7 +19449,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -19472,7 +19477,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -19500,7 +19505,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -19528,7 +19533,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -19556,7 +19561,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -19584,7 +19589,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -19612,7 +19617,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -19640,7 +19645,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -19668,7 +19673,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -19696,7 +19701,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -19724,7 +19729,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -19752,7 +19757,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -19780,7 +19785,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -19808,7 +19813,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -19836,7 +19841,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -19864,7 +19869,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -19892,7 +19897,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -19920,7 +19925,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -19948,7 +19953,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -19976,7 +19981,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -20004,7 +20009,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -20032,7 +20037,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -20060,7 +20065,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -20088,7 +20093,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -20116,7 +20121,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -20144,7 +20149,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -20172,7 +20177,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -20200,7 +20205,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -20228,7 +20233,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -20256,7 +20261,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -20284,7 +20289,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -20312,7 +20317,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -20340,7 +20345,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -20368,7 +20373,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -20396,7 +20401,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -20424,7 +20429,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -20452,7 +20457,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -20480,7 +20485,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -20508,7 +20513,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -20536,7 +20541,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -20564,7 +20569,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -20592,7 +20597,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -20620,7 +20625,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -20648,7 +20653,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -20676,7 +20681,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -20704,7 +20709,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -20732,7 +20737,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -20760,7 +20765,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -20788,7 +20793,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -20816,7 +20821,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -20844,7 +20849,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -20872,7 +20877,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -20900,7 +20905,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -20928,7 +20933,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -20956,7 +20961,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -20984,7 +20989,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -21012,7 +21017,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -21040,7 +21045,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -21068,7 +21073,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -21096,7 +21101,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -21124,7 +21129,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -21152,7 +21157,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -21180,7 +21185,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -21208,7 +21213,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -21236,7 +21241,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -21264,7 +21269,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -21292,7 +21297,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -21320,7 +21325,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -21348,7 +21353,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -21376,7 +21381,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -21404,7 +21409,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -21432,7 +21437,7 @@
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
     </row>
-    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -21460,7 +21465,7 @@
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
     </row>
-    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -21488,7 +21493,7 @@
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
     </row>
-    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -21516,7 +21521,7 @@
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
     </row>
-    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -21544,7 +21549,7 @@
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
     </row>
-    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -21572,7 +21577,7 @@
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
     </row>
-    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -21600,7 +21605,7 @@
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
     </row>
-    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -21628,7 +21633,7 @@
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
     </row>
-    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -21656,7 +21661,7 @@
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
     </row>
-    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -21684,7 +21689,7 @@
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
     </row>
-    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -21712,7 +21717,7 @@
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
     </row>
-    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -21740,7 +21745,7 @@
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
     </row>
-    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -21768,7 +21773,7 @@
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
     </row>
-    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -21796,7 +21801,7 @@
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
     </row>
-    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -21824,7 +21829,7 @@
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
     </row>
-    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -21852,7 +21857,7 @@
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
     </row>
-    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -21880,7 +21885,7 @@
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
     </row>
-    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -21908,7 +21913,7 @@
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
     </row>
-    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -21936,7 +21941,7 @@
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
     </row>
-    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -21964,7 +21969,7 @@
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
     </row>
-    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -21992,7 +21997,7 @@
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
     </row>
-    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -22020,7 +22025,7 @@
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
     </row>
-    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -22048,7 +22053,7 @@
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
     </row>
-    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -22076,7 +22081,7 @@
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
     </row>
-    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -22104,7 +22109,7 @@
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
     </row>
-    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -22132,7 +22137,7 @@
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
     </row>
-    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -22160,7 +22165,7 @@
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
     </row>
-    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -22188,7 +22193,7 @@
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
     </row>
-    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -22216,7 +22221,7 @@
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
     </row>
-    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -22244,7 +22249,7 @@
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
     </row>
-    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -22272,7 +22277,7 @@
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
     </row>
-    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -22300,7 +22305,7 @@
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
     </row>
-    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -22328,7 +22333,7 @@
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
     </row>
-    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -22356,7 +22361,7 @@
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
     </row>
-    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -22384,7 +22389,7 @@
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
     </row>
-    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -22412,7 +22417,7 @@
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
     </row>
-    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -22440,7 +22445,7 @@
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
     </row>
-    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -22468,7 +22473,7 @@
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
     </row>
-    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -22496,7 +22501,7 @@
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
     </row>
-    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -22524,7 +22529,7 @@
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
     </row>
-    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -22552,7 +22557,7 @@
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
     </row>
-    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -22580,7 +22585,7 @@
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
     </row>
-    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -22608,7 +22613,7 @@
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
     </row>
-    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -22636,7 +22641,7 @@
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
     </row>
-    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -22664,7 +22669,7 @@
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
     </row>
-    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -22692,7 +22697,7 @@
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
     </row>
-    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -22720,7 +22725,7 @@
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
     </row>
-    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -22748,7 +22753,7 @@
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
     </row>
-    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -22776,7 +22781,7 @@
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
     </row>
-    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -22804,7 +22809,7 @@
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
     </row>
-    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -22832,7 +22837,7 @@
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
     </row>
-    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -22860,7 +22865,7 @@
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
     </row>
-    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -22888,7 +22893,7 @@
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
     </row>
-    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -22916,7 +22921,7 @@
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
     </row>
-    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -22944,7 +22949,7 @@
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
     </row>
-    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -22972,7 +22977,7 @@
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
     </row>
-    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -23000,7 +23005,7 @@
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
     </row>
-    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -23028,7 +23033,7 @@
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
     </row>
-    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -23056,7 +23061,7 @@
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
     </row>
-    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -23084,7 +23089,7 @@
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
     </row>
-    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -23112,7 +23117,7 @@
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
     </row>
-    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -23140,7 +23145,7 @@
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
     </row>
-    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -23168,7 +23173,7 @@
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
     </row>
-    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -23196,7 +23201,7 @@
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
     </row>
-    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -23224,7 +23229,7 @@
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
     </row>
-    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -23252,7 +23257,7 @@
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
     </row>
-    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -23280,7 +23285,7 @@
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
     </row>
-    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -23308,7 +23313,7 @@
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
     </row>
-    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -23336,7 +23341,7 @@
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
     </row>
-    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -23364,7 +23369,7 @@
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
     </row>
-    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -23392,7 +23397,7 @@
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
     </row>
-    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -23420,7 +23425,7 @@
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
     </row>
-    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -23448,7 +23453,7 @@
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
     </row>
-    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -23476,7 +23481,7 @@
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
     </row>
-    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -23504,7 +23509,7 @@
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
     </row>
-    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -23532,7 +23537,7 @@
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
     </row>
-    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -23560,7 +23565,7 @@
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
     </row>
-    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -23588,7 +23593,7 @@
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
     </row>
-    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -23616,7 +23621,7 @@
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
     </row>
-    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -23644,7 +23649,7 @@
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
     </row>
-    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -23672,7 +23677,7 @@
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
     </row>
-    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -23700,7 +23705,7 @@
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
     </row>
-    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -23728,7 +23733,7 @@
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
     </row>
-    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -23756,7 +23761,7 @@
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
     </row>
-    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -23784,7 +23789,7 @@
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
     </row>
-    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -23812,7 +23817,7 @@
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
     </row>
-    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -23840,7 +23845,7 @@
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
     </row>
-    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -23868,7 +23873,7 @@
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
     </row>
-    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -23896,7 +23901,7 @@
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
     </row>
-    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -23924,7 +23929,7 @@
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
     </row>
-    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -23952,7 +23957,7 @@
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
     </row>
-    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -23980,7 +23985,7 @@
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
     </row>
-    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -24008,7 +24013,7 @@
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
     </row>
-    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -24036,7 +24041,7 @@
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
     </row>
-    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -24064,7 +24069,7 @@
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
     </row>
-    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -24092,7 +24097,7 @@
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
     </row>
-    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -24120,7 +24125,7 @@
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
     </row>
-    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -24148,7 +24153,7 @@
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
     </row>
-    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -24176,7 +24181,7 @@
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
     </row>
-    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -24204,7 +24209,7 @@
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
     </row>
-    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -24232,7 +24237,7 @@
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
     </row>
-    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -24260,7 +24265,7 @@
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
     </row>
-    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -24288,7 +24293,7 @@
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
     </row>
-    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -24316,7 +24321,7 @@
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
     </row>
-    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -24344,7 +24349,7 @@
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
     </row>
-    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -24372,7 +24377,7 @@
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
     </row>
-    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -24400,7 +24405,7 @@
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
     </row>
-    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -24428,7 +24433,7 @@
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
     </row>
-    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -24456,7 +24461,7 @@
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
     </row>
-    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -24484,7 +24489,7 @@
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
     </row>
-    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -24512,7 +24517,7 @@
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
     </row>
-    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -24540,7 +24545,7 @@
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
     </row>
-    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -24568,7 +24573,7 @@
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
     </row>
-    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -24596,7 +24601,7 @@
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
     </row>
-    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -24624,7 +24629,7 @@
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
     </row>
-    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -24652,7 +24657,7 @@
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
     </row>
-    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -24680,7 +24685,7 @@
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
     </row>
-    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -24708,7 +24713,7 @@
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
     </row>
-    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -24736,7 +24741,7 @@
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
     </row>
-    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -24764,7 +24769,7 @@
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
     </row>
-    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -24792,7 +24797,7 @@
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
     </row>
-    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -24820,7 +24825,7 @@
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
     </row>
-    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -24848,7 +24853,7 @@
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
     </row>
-    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -24876,7 +24881,7 @@
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
     </row>
-    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -24904,7 +24909,7 @@
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
     </row>
-    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -24932,7 +24937,7 @@
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
     </row>
-    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -24960,7 +24965,7 @@
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
     </row>
-    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -24988,7 +24993,7 @@
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
     </row>
-    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -25016,7 +25021,7 @@
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
     </row>
-    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -25044,7 +25049,7 @@
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
     </row>
-    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -25072,7 +25077,7 @@
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
     </row>
-    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -25100,7 +25105,7 @@
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
     </row>
-    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -25128,7 +25133,7 @@
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
     </row>
-    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -25156,7 +25161,7 @@
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
     </row>
-    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -25184,7 +25189,7 @@
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
     </row>
-    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -25212,7 +25217,7 @@
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
     </row>
-    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -25240,7 +25245,7 @@
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
     </row>
-    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -25268,7 +25273,7 @@
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
     </row>
-    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -25296,7 +25301,7 @@
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
     </row>
-    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -25324,7 +25329,7 @@
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
     </row>
-    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -25352,7 +25357,7 @@
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
     </row>
-    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -25380,7 +25385,7 @@
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
     </row>
-    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -25408,7 +25413,7 @@
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
     </row>
-    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -25436,7 +25441,7 @@
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
     </row>
-    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -25464,7 +25469,7 @@
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
     </row>
-    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -25492,7 +25497,7 @@
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
     </row>
-    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -25520,7 +25525,7 @@
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
     </row>
-    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -25548,7 +25553,7 @@
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
     </row>
-    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -25576,7 +25581,7 @@
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
     </row>
-    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -25604,7 +25609,7 @@
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
     </row>
-    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -25632,7 +25637,7 @@
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
     </row>
-    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -25660,7 +25665,7 @@
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
     </row>
-    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -25688,7 +25693,7 @@
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
     </row>
-    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -25716,7 +25721,7 @@
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
     </row>
-    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -25744,7 +25749,7 @@
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
     </row>
-    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -25772,7 +25777,7 @@
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
     </row>
-    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -25800,7 +25805,7 @@
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
     </row>
-    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -25828,7 +25833,7 @@
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
     </row>
-    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -25856,7 +25861,7 @@
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
     </row>
-    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -25884,7 +25889,7 @@
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
     </row>
-    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -25912,7 +25917,7 @@
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
     </row>
-    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -25940,7 +25945,7 @@
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
     </row>
-    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -25968,7 +25973,7 @@
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
     </row>
-    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -25996,7 +26001,7 @@
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
     </row>
-    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -26024,7 +26029,7 @@
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
     </row>
-    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -26052,7 +26057,7 @@
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
     </row>
-    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -26080,7 +26085,7 @@
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
     </row>
-    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -26108,7 +26113,7 @@
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
     </row>
-    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -26136,7 +26141,7 @@
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
     </row>
-    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -26164,7 +26169,7 @@
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
     </row>
-    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -26192,7 +26197,7 @@
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
     </row>
-    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -26220,7 +26225,7 @@
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
     </row>
-    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -26248,7 +26253,7 @@
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
     </row>
-    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -26276,7 +26281,7 @@
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
     </row>
-    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -26304,7 +26309,7 @@
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
     </row>
-    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -26332,7 +26337,7 @@
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
     </row>
-    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -26360,7 +26365,7 @@
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
     </row>
-    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -26388,7 +26393,7 @@
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
     </row>
-    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -26416,7 +26421,7 @@
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
     </row>
-    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -26444,7 +26449,7 @@
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
     </row>
-    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -26472,7 +26477,7 @@
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
     </row>
-    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -26500,7 +26505,7 @@
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
     </row>
-    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -26528,7 +26533,7 @@
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
     </row>
-    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -26556,7 +26561,7 @@
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
     </row>
-    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -26584,7 +26589,7 @@
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
     </row>
-    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -26612,7 +26617,7 @@
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
     </row>
-    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -26640,7 +26645,7 @@
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
     </row>
-    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -26668,7 +26673,7 @@
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
     </row>
-    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -26696,7 +26701,7 @@
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
     </row>
-    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -26724,7 +26729,7 @@
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
     </row>
-    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -26752,7 +26757,7 @@
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
     </row>
-    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -26780,7 +26785,7 @@
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
     </row>
-    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -26808,7 +26813,7 @@
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
     </row>
-    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -26836,7 +26841,7 @@
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
     </row>
-    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -26864,7 +26869,7 @@
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
     </row>
-    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -26892,7 +26897,7 @@
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
     </row>
-    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -26920,7 +26925,7 @@
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
     </row>
-    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -26948,7 +26953,7 @@
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
     </row>
-    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -26976,7 +26981,7 @@
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
     </row>
-    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -27004,7 +27009,7 @@
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
     </row>
-    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -27032,7 +27037,7 @@
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
     </row>
-    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -27060,7 +27065,7 @@
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
     </row>
-    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -27088,7 +27093,7 @@
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
     </row>
-    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -27116,7 +27121,7 @@
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
     </row>
-    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -27144,7 +27149,7 @@
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
     </row>
-    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -27172,7 +27177,7 @@
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
     </row>
-    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -27200,7 +27205,7 @@
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
     </row>
-    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -27228,7 +27233,7 @@
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
     </row>
-    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -27256,7 +27261,7 @@
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
     </row>
-    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -27284,7 +27289,7 @@
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
     </row>
-    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -27312,7 +27317,7 @@
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
     </row>
-    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -27340,7 +27345,7 @@
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
     </row>
-    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -27368,7 +27373,7 @@
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
     </row>
-    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -27396,7 +27401,7 @@
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
     </row>
-    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -27424,7 +27429,7 @@
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
     </row>
-    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -27452,7 +27457,7 @@
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
     </row>
-    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -27480,7 +27485,7 @@
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
     </row>
-    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -27508,7 +27513,7 @@
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
     </row>
-    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -27536,7 +27541,7 @@
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
     </row>
-    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -27564,7 +27569,7 @@
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
     </row>
-    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -27592,7 +27597,7 @@
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
     </row>
-    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -27620,7 +27625,7 @@
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
     </row>
-    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -27648,7 +27653,7 @@
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
     </row>
-    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -27676,7 +27681,7 @@
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
     </row>
-    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -27704,7 +27709,7 @@
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
     </row>
-    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -27732,7 +27737,7 @@
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
     </row>
-    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -27760,7 +27765,7 @@
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
     </row>
-    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -27788,7 +27793,7 @@
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
     </row>
-    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -27816,7 +27821,7 @@
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
     </row>
-    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -27844,7 +27849,7 @@
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
     </row>
-    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -27872,7 +27877,7 @@
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
     </row>
-    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -27900,7 +27905,7 @@
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
     </row>
-    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -27928,7 +27933,7 @@
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
     </row>
-    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -27956,7 +27961,7 @@
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
     </row>
-    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -27984,7 +27989,7 @@
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
     </row>
-    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -28012,7 +28017,7 @@
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
     </row>
-    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -28040,7 +28045,7 @@
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
     </row>
-    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -28068,7 +28073,7 @@
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
     </row>
-    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -28096,7 +28101,7 @@
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
     </row>
-    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -28124,7 +28129,7 @@
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
     </row>
-    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -28152,7 +28157,7 @@
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
     </row>
-    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -28180,7 +28185,7 @@
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
     </row>
-    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -28208,7 +28213,7 @@
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
     </row>
-    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -28236,7 +28241,7 @@
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
     </row>
-    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -28264,7 +28269,7 @@
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
     </row>
-    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -28292,7 +28297,7 @@
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
     </row>
-    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -28320,7 +28325,7 @@
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
     </row>
-    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -28348,7 +28353,7 @@
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
     </row>
-    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -28376,7 +28381,7 @@
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
     </row>
-    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -28404,7 +28409,7 @@
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
     </row>
-    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -28432,7 +28437,7 @@
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
     </row>
-    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -28460,7 +28465,7 @@
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
     </row>
-    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -28488,7 +28493,7 @@
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
     </row>
-    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -28516,7 +28521,7 @@
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
     </row>
-    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -28544,7 +28549,7 @@
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
     </row>
-    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -28572,7 +28577,7 @@
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
     </row>
-    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -28600,7 +28605,7 @@
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
     </row>
-    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -28628,7 +28633,7 @@
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
     </row>
-    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -28656,7 +28661,7 @@
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
     </row>
-    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -28684,7 +28689,7 @@
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
     </row>
-    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -28712,7 +28717,7 @@
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
     </row>
-    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -28740,7 +28745,7 @@
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
     </row>
-    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -28768,7 +28773,7 @@
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
     </row>
-    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -28796,7 +28801,7 @@
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
     </row>
-    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -28824,7 +28829,7 @@
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
     </row>
-    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -28852,7 +28857,7 @@
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
     </row>
-    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -28880,7 +28885,7 @@
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
     </row>
-    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -28908,7 +28913,7 @@
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
     </row>
-    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -28936,7 +28941,7 @@
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
     </row>
-    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -28964,7 +28969,7 @@
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
     </row>
-    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -28992,7 +28997,7 @@
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
     </row>
-    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -29020,7 +29025,7 @@
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
     </row>
-    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -29048,7 +29053,7 @@
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
     </row>
-    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -29076,7 +29081,7 @@
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
     </row>
-    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -29104,7 +29109,7 @@
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
     </row>
-    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -29132,7 +29137,7 @@
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
     </row>
-    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -29160,7 +29165,7 @@
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
     </row>
-    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -29188,7 +29193,7 @@
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
     </row>
-    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -29216,7 +29221,7 @@
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
     </row>
-    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -29244,7 +29249,7 @@
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
     </row>
-    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -29272,7 +29277,7 @@
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
     </row>
-    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -29300,7 +29305,7 @@
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
     </row>
-    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -29328,7 +29333,7 @@
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
     </row>
-    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -29356,7 +29361,7 @@
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
     </row>
-    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -29384,7 +29389,7 @@
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
     </row>
-    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -29412,7 +29417,7 @@
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
     </row>
-    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -29440,7 +29445,7 @@
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
     </row>
-    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -29468,7 +29473,7 @@
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
     </row>
-    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -29496,7 +29501,7 @@
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
     </row>
-    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -29524,7 +29529,7 @@
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
     </row>
-    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -29552,7 +29557,7 @@
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
     </row>
-    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -29580,7 +29585,7 @@
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
     </row>
-    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -29608,7 +29613,7 @@
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
     </row>
-    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -29636,7 +29641,7 @@
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
     </row>
-    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -29664,7 +29669,7 @@
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
     </row>
-    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -29692,7 +29697,7 @@
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
     </row>
-    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -29720,7 +29725,7 @@
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
     </row>
-    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -29748,7 +29753,7 @@
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
     </row>
-    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -29776,7 +29781,7 @@
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
     </row>
-    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -29804,7 +29809,7 @@
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
     </row>
-    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -29832,7 +29837,7 @@
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
     </row>
-    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -29860,7 +29865,7 @@
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
     </row>
-    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -29888,7 +29893,7 @@
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
     </row>
-    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -29916,7 +29921,7 @@
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
     </row>
-    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -29944,7 +29949,7 @@
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
     </row>
-    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -29972,7 +29977,7 @@
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
     </row>
-    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -30000,7 +30005,7 @@
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
     </row>
-    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -30028,7 +30033,7 @@
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
     </row>
-    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -30056,7 +30061,7 @@
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
     </row>
-    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -30084,7 +30089,7 @@
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
     </row>
-    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -30112,7 +30117,7 @@
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
     </row>
-    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -30140,7 +30145,7 @@
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
     </row>
-    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -30168,7 +30173,7 @@
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
     </row>
-    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -30196,7 +30201,7 @@
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
     </row>
-    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -30224,7 +30229,7 @@
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
     </row>
-    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -30252,7 +30257,7 @@
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
     </row>
-    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -30280,7 +30285,7 @@
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
     </row>
-    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -30308,7 +30313,7 @@
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
     </row>
-    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -30336,7 +30341,7 @@
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
     </row>
-    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -30364,7 +30369,7 @@
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
     </row>
-    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -30392,7 +30397,7 @@
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
     </row>
-    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -30420,7 +30425,7 @@
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
     </row>
-    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -30448,7 +30453,7 @@
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
     </row>
-    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -30476,7 +30481,7 @@
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
     </row>
-    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -30504,7 +30509,7 @@
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
     </row>
-    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -30532,7 +30537,7 @@
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
     </row>
-    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -30560,7 +30565,7 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
-    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -30588,7 +30593,7 @@
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
     </row>
-    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -30616,7 +30621,7 @@
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
     </row>
-    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -30644,7 +30649,7 @@
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
     </row>
-    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -30672,7 +30677,7 @@
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
     </row>
-    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -30700,7 +30705,7 @@
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
     </row>
-    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -30728,7 +30733,7 @@
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
     </row>
-    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -30756,7 +30761,7 @@
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
     </row>
-    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -30784,7 +30789,7 @@
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
     </row>
-    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -30812,7 +30817,7 @@
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
     </row>
-    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -30840,7 +30845,7 @@
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
     </row>
-    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -30868,7 +30873,7 @@
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
     </row>
-    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -30896,7 +30901,7 @@
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
     </row>
-    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -30924,7 +30929,7 @@
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
     </row>
-    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -30952,7 +30957,7 @@
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
     </row>
-    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -30980,7 +30985,7 @@
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
     </row>
-    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -31008,7 +31013,7 @@
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
     </row>
-    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -31036,7 +31041,7 @@
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
     </row>
-    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -31064,7 +31069,7 @@
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
     </row>
-    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -31092,7 +31097,7 @@
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
     </row>
-    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -31120,7 +31125,7 @@
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
     </row>
-    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -31148,7 +31153,7 @@
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
     </row>
-    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -31176,7 +31181,7 @@
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
     </row>
-    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -31204,7 +31209,7 @@
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
     </row>
-    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -31232,7 +31237,7 @@
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
     </row>
-    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -31260,7 +31265,7 @@
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
     </row>
-    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -31288,7 +31293,7 @@
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
     </row>
-    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -31316,7 +31321,7 @@
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
     </row>
-    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -31344,7 +31349,7 @@
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
     </row>
-    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -31372,7 +31377,7 @@
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
     </row>
-    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -31400,7 +31405,7 @@
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
     </row>
-    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -31428,7 +31433,7 @@
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
     </row>
-    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -31456,7 +31461,7 @@
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
     </row>
-    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -31484,7 +31489,7 @@
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
     </row>
-    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -31512,7 +31517,7 @@
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
     </row>
-    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -31540,7 +31545,7 @@
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
     </row>
-    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -31568,7 +31573,7 @@
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
     </row>
-    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -31596,7 +31601,7 @@
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
     </row>
-    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -31624,7 +31629,7 @@
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
     </row>
-    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -31652,7 +31657,7 @@
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
     </row>
-    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -31680,7 +31685,7 @@
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
     </row>
-    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -31708,7 +31713,7 @@
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
     </row>
-    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -31736,7 +31741,7 @@
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
     </row>
-    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -31764,7 +31769,7 @@
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
     </row>
-    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -31792,7 +31797,7 @@
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
     </row>
-    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -31820,7 +31825,7 @@
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
     </row>
-    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -31848,7 +31853,7 @@
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
     </row>
-    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -31876,7 +31881,7 @@
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
     </row>
-    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -31904,7 +31909,7 @@
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
     </row>
-    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -31932,7 +31937,7 @@
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
     </row>
-    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -31960,7 +31965,7 @@
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
     </row>
-    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -31988,7 +31993,7 @@
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
     </row>
-    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -32016,7 +32021,7 @@
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
     </row>
-    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -32044,7 +32049,7 @@
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
     </row>
-    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -32072,7 +32077,7 @@
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
     </row>
-    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -32100,7 +32105,7 @@
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
     </row>
-    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -32128,7 +32133,7 @@
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
     </row>
-    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -32156,7 +32161,7 @@
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
     </row>
-    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -32184,7 +32189,7 @@
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
     </row>
-    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -32212,7 +32217,7 @@
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
     </row>
-    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -32240,7 +32245,7 @@
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
     </row>
-    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -32268,7 +32273,7 @@
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
     </row>
-    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -32296,7 +32301,7 @@
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
     </row>
-    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -32324,7 +32329,7 @@
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
     </row>
-    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -32352,7 +32357,7 @@
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
     </row>
-    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -32380,7 +32385,7 @@
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
     </row>
-    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -32408,7 +32413,7 @@
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
     </row>
-    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -32436,7 +32441,7 @@
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
     </row>
-    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -32464,7 +32469,7 @@
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
     </row>
-    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -32492,7 +32497,7 @@
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
     </row>
-    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -32520,7 +32525,7 @@
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
     </row>
-    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -32548,7 +32553,7 @@
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
     </row>
-    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -32576,7 +32581,7 @@
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
     </row>
-    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -32604,7 +32609,7 @@
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
     </row>
-    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -32632,7 +32637,7 @@
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
     </row>
-    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -32660,7 +32665,7 @@
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
     </row>
-    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -32688,7 +32693,7 @@
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
     </row>
-    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -32716,7 +32721,7 @@
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
     </row>
-    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -32744,7 +32749,7 @@
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
     </row>
-    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -32772,7 +32777,7 @@
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
     </row>
-    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -32800,7 +32805,7 @@
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
     </row>
-    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -32828,7 +32833,7 @@
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
     </row>
-    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -32856,7 +32861,7 @@
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
     </row>
-    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -32884,7 +32889,7 @@
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
     </row>
-    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -32912,7 +32917,7 @@
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
     </row>
-    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -32940,7 +32945,7 @@
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
     </row>
-    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -32968,7 +32973,7 @@
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
     </row>
-    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -32996,7 +33001,7 @@
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
     </row>
-    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -33024,7 +33029,7 @@
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
     </row>
-    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -33052,7 +33057,7 @@
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
     </row>
-    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -33080,7 +33085,7 @@
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
     </row>
-    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -33108,7 +33113,7 @@
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
     </row>
-    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -33136,7 +33141,7 @@
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
     </row>
-    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -33164,7 +33169,7 @@
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
     </row>
-    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -33192,7 +33197,7 @@
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
     </row>
-    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -33220,7 +33225,7 @@
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
     </row>
-    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -33248,7 +33253,7 @@
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
     </row>
-    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -33276,7 +33281,7 @@
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
     </row>
-    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -33304,7 +33309,7 @@
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
     </row>
-    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -33332,7 +33337,7 @@
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
     </row>
-    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -33360,7 +33365,7 @@
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
     </row>
-    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -33388,7 +33393,7 @@
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
     </row>
-    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -33416,7 +33421,7 @@
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
     </row>
-    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -33444,7 +33449,7 @@
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
     </row>
-    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -33472,7 +33477,7 @@
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
     </row>
-    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -33500,7 +33505,7 @@
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
     </row>
-    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -33528,7 +33533,7 @@
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
     </row>
-    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -33556,7 +33561,7 @@
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
     </row>
-    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -33584,7 +33589,7 @@
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
     </row>
-    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -33612,7 +33617,7 @@
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
     </row>
-    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -33640,7 +33645,7 @@
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
     </row>
-    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -33668,7 +33673,7 @@
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
     </row>
-    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -33696,7 +33701,7 @@
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
     </row>
-    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -33724,7 +33729,7 @@
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
     </row>
-    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -33752,7 +33757,7 @@
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
     </row>
-    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -33780,7 +33785,7 @@
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
     </row>
-    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -33808,7 +33813,7 @@
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
     </row>
-    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -33836,7 +33841,7 @@
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
     </row>
-    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -33864,7 +33869,7 @@
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
     </row>
-    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -33892,7 +33897,7 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
-    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -33920,7 +33925,7 @@
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
     </row>
-    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -33948,7 +33953,7 @@
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
     </row>
-    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -33976,7 +33981,7 @@
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
     </row>
-    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -34004,7 +34009,7 @@
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
     </row>
-    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -34032,7 +34037,7 @@
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
     </row>
-    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -34060,7 +34065,7 @@
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
     </row>
-    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -34088,7 +34093,7 @@
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
     </row>
-    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -34116,7 +34121,7 @@
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
     </row>
-    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -34144,7 +34149,7 @@
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
     </row>
-    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -34172,7 +34177,7 @@
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
     </row>
-    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -34200,7 +34205,7 @@
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
     </row>
-    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -34228,7 +34233,7 @@
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
     </row>
-    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -34256,7 +34261,7 @@
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
     </row>
-    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -34284,7 +34289,7 @@
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
     </row>
-    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -34312,7 +34317,7 @@
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
     </row>
-    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -34340,7 +34345,7 @@
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
     </row>
-    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -34368,7 +34373,7 @@
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
     </row>
-    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -34396,7 +34401,7 @@
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
     </row>
-    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -34424,7 +34429,7 @@
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
     </row>
-    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -34452,7 +34457,7 @@
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
     </row>
-    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -34480,7 +34485,7 @@
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
     </row>
-    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -34508,7 +34513,7 @@
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
     </row>
-    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -34536,7 +34541,7 @@
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
     </row>
-    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -34564,7 +34569,7 @@
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
     </row>
-    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -34592,7 +34597,7 @@
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
     </row>
-    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -34620,7 +34625,7 @@
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
     </row>
-    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -34648,7 +34653,7 @@
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
     </row>
-    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -34676,7 +34681,7 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -34704,7 +34709,7 @@
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
     </row>
-    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -34732,7 +34737,7 @@
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
     </row>
-    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -34760,7 +34765,7 @@
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
     </row>
-    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -34788,7 +34793,7 @@
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
     </row>
-    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -34816,7 +34821,7 @@
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
     </row>
-    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -34844,7 +34849,7 @@
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
     </row>
-    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -34872,7 +34877,7 @@
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
     </row>
-    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -34900,7 +34905,7 @@
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
     </row>
-    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -34928,7 +34933,7 @@
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
     </row>
-    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -34956,7 +34961,7 @@
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
     </row>
-    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -34984,7 +34989,7 @@
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
     </row>
-    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -35012,7 +35017,7 @@
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
     </row>
-    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -35040,7 +35045,7 @@
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
     </row>
-    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -35068,7 +35073,7 @@
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
     </row>
-    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -35096,7 +35101,7 @@
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
     </row>
-    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -35124,7 +35129,7 @@
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
     </row>
-    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -35152,7 +35157,7 @@
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
     </row>
-    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -35180,7 +35185,7 @@
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
     </row>
-    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -35208,7 +35213,7 @@
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
     </row>
-    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -35236,7 +35241,7 @@
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
     </row>
-    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -35264,7 +35269,7 @@
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
     </row>
-    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -35292,7 +35297,7 @@
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
     </row>
-    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -35320,7 +35325,7 @@
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
     </row>
-    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -35348,7 +35353,7 @@
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
     </row>
-    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -35376,7 +35381,7 @@
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
     </row>
-    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -35404,7 +35409,7 @@
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
     </row>
-    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -35432,7 +35437,7 @@
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
     </row>
-    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -35460,7 +35465,7 @@
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
     </row>
-    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -35488,7 +35493,7 @@
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
     </row>
-    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -35516,7 +35521,7 @@
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
     </row>
-    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -35544,7 +35549,7 @@
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
     </row>
-    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -35572,7 +35577,7 @@
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
     </row>
-    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -35600,7 +35605,7 @@
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
     </row>
-    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -35628,7 +35633,7 @@
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
     </row>
-    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -35656,7 +35661,7 @@
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
     </row>
-    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -35684,7 +35689,7 @@
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
     </row>
-    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -35712,7 +35717,7 @@
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
     </row>
-    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -35740,7 +35745,7 @@
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
     </row>
-    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -35768,7 +35773,7 @@
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
     </row>
-    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -35796,7 +35801,7 @@
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
     </row>
-    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -35824,7 +35829,7 @@
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
     </row>
-    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -35852,7 +35857,7 @@
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
     </row>
-    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -35880,7 +35885,7 @@
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
     </row>
-    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -35908,7 +35913,7 @@
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
     </row>
-    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -35936,7 +35941,7 @@
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
     </row>
-    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -35964,7 +35969,7 @@
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
     </row>
-    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -35992,7 +35997,7 @@
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
     </row>
-    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -36020,7 +36025,7 @@
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
     </row>
-    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -36048,7 +36053,7 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
-    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -36076,7 +36081,7 @@
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
     </row>
-    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -36104,7 +36109,7 @@
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
     </row>
-    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -36132,7 +36137,7 @@
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
     </row>
-    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -36160,7 +36165,7 @@
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
     </row>
-    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -36188,7 +36193,7 @@
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
     </row>
-    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -36216,7 +36221,7 @@
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
     </row>
-    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -36244,7 +36249,7 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -36272,7 +36277,7 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -36300,7 +36305,7 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -36328,7 +36333,7 @@
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
     </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -36356,7 +36361,7 @@
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
     </row>
-    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -36384,7 +36389,7 @@
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
     </row>
-    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -36412,7 +36417,7 @@
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
     </row>
-    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -36440,7 +36445,7 @@
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
     </row>
-    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -36468,7 +36473,7 @@
       <c r="Y991" s="1"/>
       <c r="Z991" s="1"/>
     </row>
-    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -36496,7 +36501,7 @@
       <c r="Y992" s="1"/>
       <c r="Z992" s="1"/>
     </row>
-    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -36524,7 +36529,7 @@
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
     </row>
-    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -36552,7 +36557,7 @@
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
     </row>
-    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -36580,7 +36585,7 @@
       <c r="Y995" s="1"/>
       <c r="Z995" s="1"/>
     </row>
-    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -36608,7 +36613,7 @@
       <c r="Y996" s="1"/>
       <c r="Z996" s="1"/>
     </row>
-    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -36636,7 +36641,7 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
-    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -36664,7 +36669,7 @@
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
     </row>
-    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -36692,7 +36697,7 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
